--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3611369.585475193</v>
+        <v>3604443.638393654</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>102.1242129758026</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>156.7786992865378</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>66.21659530538388</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>109.575636474214</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.08478869357499</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>159.9477735525707</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>264.7093273289288</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15.82640440590122</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>45.04968784996998</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>225.5300047729779</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>79.92938740919237</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.62158221638407</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.228487298092745</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>225.93078155091</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.2141420390929</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>11.8784371211645</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1436,7 +1436,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>71.7383245062754</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>52.2205731687296</v>
       </c>
       <c r="D14" t="n">
-        <v>114.0338090732245</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603044</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665137</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059423</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.3673743845347</v>
+        <v>20.92391191189573</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443482</v>
+        <v>48.81858568179585</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046315</v>
+        <v>67.32610467782418</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074555</v>
+        <v>52.47323292810658</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258528</v>
+        <v>38.04694813994631</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546439</v>
+        <v>37.97339019282542</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523166</v>
+        <v>39.72284161259269</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762379</v>
+        <v>50.54167953498482</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419584</v>
+        <v>37.89393170155687</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536777</v>
+        <v>15.7336472827288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982368</v>
+        <v>6.632145647184714</v>
       </c>
       <c r="S34" t="n">
-        <v>91.201551625351</v>
+        <v>84.75808915271203</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>143.5290007893334</v>
       </c>
       <c r="I41" t="n">
         <v>40.48690626822795</v>
@@ -3794,16 +3794,16 @@
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>22.91319359903925</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183731</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>205.2376787958976</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822793</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812805</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>22.91319359903956</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415637</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443878</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627851</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915762</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892489</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131702</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788906</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906099</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351691</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
@@ -4198,7 +4198,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938.0988669941994</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="C2" t="n">
-        <v>938.0988669941994</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="D2" t="n">
-        <v>938.0988669941994</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="E2" t="n">
-        <v>938.0988669941994</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F2" t="n">
-        <v>779.736544482545</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G2" t="n">
-        <v>366.5737889705482</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703877</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703877</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830295</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1420.616275678884</v>
+        <v>1338.903951794714</v>
       </c>
       <c r="N2" t="n">
-        <v>1946.439165074739</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="O2" t="n">
-        <v>1946.439165074739</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851938</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851938</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851938</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.536926851938</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="W2" t="n">
-        <v>2124.536926851938</v>
+        <v>628.0506498235067</v>
       </c>
       <c r="X2" t="n">
-        <v>1735.084321784995</v>
+        <v>628.0506498235067</v>
       </c>
       <c r="Y2" t="n">
-        <v>1338.593612705596</v>
+        <v>628.0506498235067</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>717.4249155602016</v>
+        <v>505.9467430955083</v>
       </c>
       <c r="C3" t="n">
-        <v>566.7706851202938</v>
+        <v>505.9467430955083</v>
       </c>
       <c r="D3" t="n">
-        <v>436.6817177417741</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E3" t="n">
-        <v>300.2352268526618</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703877</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>362.2298845992652</v>
+        <v>473.352454180576</v>
       </c>
       <c r="M3" t="n">
-        <v>442.2072945938146</v>
+        <v>974.5192371760265</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896694</v>
+        <v>1475.686020171477</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1619.294926214716</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297048</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750003</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649872</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527422</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1467.959790442357</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1237.842544575644</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>1048.535466925656</v>
+        <v>837.0572944609623</v>
       </c>
       <c r="Y3" t="n">
-        <v>869.221250001163</v>
+        <v>657.7430775364696</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.8392178005154</v>
+        <v>62.80619326586972</v>
       </c>
       <c r="C4" t="n">
-        <v>343.8392178005154</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D4" t="n">
-        <v>343.8392178005154</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>343.8392178005154</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>343.8392178005154</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>505.4026254293747</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>343.8392178005154</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>343.8392178005154</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>343.8392178005154</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>343.8392178005154</v>
+        <v>62.80619326586972</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.8392178005154</v>
+        <v>62.80619326586972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1737.551624743558</v>
+        <v>329.8578707179432</v>
       </c>
       <c r="C5" t="n">
-        <v>1737.551624743558</v>
+        <v>329.8578707179432</v>
       </c>
       <c r="D5" t="n">
-        <v>1737.551624743558</v>
+        <v>329.8578707179432</v>
       </c>
       <c r="E5" t="n">
-        <v>1334.968099860102</v>
+        <v>329.8578707179432</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900801</v>
+        <v>317.003836288325</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780833</v>
+        <v>307.8814848167322</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703877</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L5" t="n">
-        <v>632.8515471679003</v>
+        <v>678.4683905259792</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563755</v>
+        <v>1179.63517352143</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.49732595961</v>
+        <v>1680.80195651688</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>2108.550659775271</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="T5" t="n">
-        <v>2108.550659775271</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="U5" t="n">
-        <v>2108.550659775271</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="V5" t="n">
-        <v>2108.550659775271</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.551624743558</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="X5" t="n">
-        <v>1737.551624743558</v>
+        <v>1126.843325508739</v>
       </c>
       <c r="Y5" t="n">
-        <v>1737.551624743558</v>
+        <v>730.3526164293401</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>595.3726849936495</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>444.7184545537417</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>314.629487175222</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>958.9109527173059</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="N6" t="n">
-        <v>1484.733842113161</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>2001.254124704142</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851938</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>1989.606249751807</v>
+        <v>1955.494516627188</v>
       </c>
       <c r="T6" t="n">
-        <v>1812.622437950716</v>
+        <v>1778.510704826096</v>
       </c>
       <c r="U6" t="n">
-        <v>1812.622437950716</v>
+        <v>1568.447561504738</v>
       </c>
       <c r="V6" t="n">
-        <v>1590.082436321783</v>
+        <v>1345.907559875805</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1115.790314009092</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>926.4832363591036</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>747.1690194346108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.9638336712756</v>
+        <v>424.5346241543353</v>
       </c>
       <c r="C7" t="n">
-        <v>219.9638336712756</v>
+        <v>254.3295062203246</v>
       </c>
       <c r="D7" t="n">
-        <v>64.33072057379036</v>
+        <v>254.3295062203246</v>
       </c>
       <c r="E7" t="n">
-        <v>64.33072057379036</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="F7" t="n">
-        <v>64.33072057379036</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703877</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703877</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>219.9638336712756</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>219.9638336712756</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>219.9638336712756</v>
+        <v>658.6149463713523</v>
       </c>
       <c r="X7" t="n">
-        <v>219.9638336712756</v>
+        <v>424.5346241543353</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.9638336712756</v>
+        <v>424.5346241543353</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>857.3140096695423</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="C8" t="n">
-        <v>857.3140096695423</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D8" t="n">
         <v>471.8728808862101</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.420512008749</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1577.42141205333</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2360.367204776077</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2360.367204776077</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2360.367204776077</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2360.367204776077</v>
+        <v>1970.922039360746</v>
       </c>
       <c r="V8" t="n">
-        <v>2018.260395479595</v>
+        <v>1628.815230064265</v>
       </c>
       <c r="W8" t="n">
-        <v>1647.261360447882</v>
+        <v>1257.816195032552</v>
       </c>
       <c r="X8" t="n">
-        <v>1257.808755380939</v>
+        <v>868.363589965609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1257.808755380939</v>
+        <v>471.8728808862101</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D11" t="n">
-        <v>1021.936224042535</v>
+        <v>960.5228502918587</v>
       </c>
       <c r="E11" t="n">
-        <v>714.2933804462677</v>
+        <v>652.8800066955916</v>
       </c>
       <c r="F11" t="n">
-        <v>392.3396232634341</v>
+        <v>652.8800066955916</v>
       </c>
       <c r="G11" t="n">
-        <v>74.11754903862561</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="H11" t="n">
-        <v>74.11754903862561</v>
+        <v>105.5155633244622</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5075,16 +5075,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
         <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>1854.812182422092</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O12" t="n">
-        <v>2262.088962721623</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P12" t="n">
-        <v>2262.088962721623</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550998</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5218,31 +5218,31 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.897093415104</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.662273205223</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
         <v>1282.476607474693</v>
@@ -5270,7 +5270,7 @@
         <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155802</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.001185631523</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.451157839313</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5455,13 +5455,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.142663665514</v>
+        <v>804.5780233445264</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>149.53381142224</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960398</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343038</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655131</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072212</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,16 +6020,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6069,16 +6069,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>2262.088962721623</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2416.016209023993</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645895</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,19 +6309,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>985.0370485667553</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>985.0370485667553</v>
       </c>
       <c r="N27" t="n">
-        <v>2273.334693965057</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
         <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.557331157736</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>2048.96834470963</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267645</v>
+        <v>87.68547930209935</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>310.962869278667</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061288</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1163.265517024658</v>
+        <v>1178.372170887746</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.756924709624</v>
+        <v>1724.373070932327</v>
       </c>
       <c r="N32" t="n">
-        <v>2345.568208347086</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2785.607809239415</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011322</v>
+        <v>3142.665177090497</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>386.2893608068554</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>386.2893608068554</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>1014.061010433537</v>
       </c>
       <c r="N33" t="n">
-        <v>2268.512462400553</v>
+        <v>1669.838981644096</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.878162358681</v>
+        <v>2186.359264235077</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.878162358681</v>
+        <v>2186.359264235077</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590195</v>
+        <v>341.6872565554789</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229128</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233318</v>
+        <v>250.2527302241124</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804384</v>
+        <v>211.8957704333796</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459276</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806338</v>
+        <v>82.44278775748629</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304543</v>
+        <v>80.40002251286032</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333732</v>
+        <v>162.2350636228022</v>
       </c>
       <c r="L34" t="n">
-        <v>451.6289669133254</v>
+        <v>326.362703496602</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919753</v>
+        <v>512.654281834866</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231844</v>
+        <v>810.7134513543735</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605278</v>
+        <v>1088.28775388438</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381857</v>
+        <v>1208.163919660959</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279001</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569818</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378691</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524166</v>
+        <v>409.6934228967155</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
         <v>3105.956385205777</v>
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7254,22 +7254,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N39" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7348,34 +7348,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260104</v>
+        <v>1772.044870492823</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1476.310620985886</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959969</v>
+        <v>1188.310744192687</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666463</v>
+        <v>883.1684712993645</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867573</v>
+        <v>563.7152848194754</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648937</v>
+        <v>247.9937812976118</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111242</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V41" t="n">
-        <v>2752.513254111242</v>
+        <v>2666.159174380162</v>
       </c>
       <c r="W41" t="n">
-        <v>2478.955471069662</v>
+        <v>2666.159174380162</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.810831070633</v>
+        <v>2374.147821303352</v>
       </c>
       <c r="Y41" t="n">
-        <v>2156.761373981368</v>
+        <v>2075.098364214086</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>2262.088962721623</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7570,19 +7570,19 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529118</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022411</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160347</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822773</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1383.507071954778</v>
       </c>
       <c r="P43" t="n">
         <v>1539.269802792119</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.707880260104</v>
+        <v>1765.28441741569</v>
       </c>
       <c r="C44" t="n">
         <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959968</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666462</v>
+        <v>964.8314810666463</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867572</v>
+        <v>645.3782945867573</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
         <v>103.0149926215175</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2878.572604561692</v>
       </c>
       <c r="V44" t="n">
-        <v>2729.368614112213</v>
+        <v>2633.907047255343</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.810831070633</v>
+        <v>2360.349264213763</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.810831070633</v>
+        <v>2068.337911136954</v>
       </c>
       <c r="Y44" t="n">
-        <v>2156.761373981367</v>
+        <v>2068.337911136954</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N45" t="n">
-        <v>2262.088962721623</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344861</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690441</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022401</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160337</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7843,13 +7843,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557613</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288777</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356542</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107118</v>
+        <v>454.2232387101243</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507687</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>330.1981763088036</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>173.1723846700689</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671512</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>237.7470599426651</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>386.9637784207944</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107118</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507687</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>310.4413912354947</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671512</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>211.6114477968871</v>
+        <v>422.907486336368</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,22 +8453,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>638.5768697011139</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8541,13 +8541,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8769,25 +8769,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.5494662449327</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9243,7 +9243,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>431.8341765764318</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,19 +9717,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>647.2923877624991</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
@@ -9957,22 +9957,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682831</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>609.3287968270079</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>196.5449382119059</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,13 +10425,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10440,13 +10440,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>212.248871977908</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>291.5199566763059</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,25 +10902,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,10 +11151,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P42" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>31.08403414297886</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.796203008013</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>243.0318988390526</v>
       </c>
       <c r="D14" t="n">
-        <v>173.561633947958</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>80.84637966960901</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,16 +25682,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>266.1780459470026</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>87.53922821596925</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>219.3057081342453</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542323.5925863622</v>
+        <v>542323.5925863624</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542323.5925863622</v>
+        <v>542323.5925863623</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987413</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544688.2522704607</v>
+        <v>544688.2522704608</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="C2" t="n">
-        <v>685262.2767547561</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="D2" t="n">
         <v>685262.2767547559</v>
       </c>
       <c r="E2" t="n">
-        <v>644009.2661963057</v>
+        <v>644009.2661963067</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963061</v>
+        <v>644009.266196307</v>
       </c>
       <c r="G2" t="n">
-        <v>685262.2767547561</v>
+        <v>685262.2767547563</v>
       </c>
       <c r="H2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.276754756</v>
       </c>
       <c r="I2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547563</v>
       </c>
       <c r="J2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="K2" t="n">
         <v>685262.2767547559</v>
       </c>
       <c r="L2" t="n">
-        <v>685262.2767547551</v>
+        <v>685262.2767547565</v>
       </c>
       <c r="M2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="N2" t="n">
-        <v>685262.2767547562</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="O2" t="n">
-        <v>646817.2995711737</v>
+        <v>646817.2995711735</v>
       </c>
       <c r="P2" t="n">
         <v>646817.2995711735</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602672</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301427</v>
       </c>
       <c r="H3" t="n">
         <v>4.547473508864641e-11</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469663</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670127</v>
+        <v>46725.80335481238</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.97194555672</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015679</v>
+        <v>18983.55983015685</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>98913.70727082908</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270754.8698438744</v>
+        <v>273903.2204306482</v>
       </c>
       <c r="C6" t="n">
-        <v>448750.1669782251</v>
+        <v>443552.2263071982</v>
       </c>
       <c r="D6" t="n">
-        <v>442606.6080211517</v>
+        <v>434870.3187977602</v>
       </c>
       <c r="E6" t="n">
-        <v>361204.9541778468</v>
+        <v>361096.3936237464</v>
       </c>
       <c r="F6" t="n">
-        <v>491657.8853155593</v>
+        <v>491549.324761459</v>
       </c>
       <c r="G6" t="n">
-        <v>476154.1395509025</v>
+        <v>476154.1395509028</v>
       </c>
       <c r="H6" t="n">
-        <v>505249.0954239169</v>
+        <v>505249.0954239166</v>
       </c>
       <c r="I6" t="n">
-        <v>505249.0954239169</v>
+        <v>505249.095423917</v>
       </c>
       <c r="J6" t="n">
-        <v>277163.4520741676</v>
+        <v>283679.7372287404</v>
       </c>
       <c r="K6" t="n">
         <v>499009.3270211336</v>
       </c>
       <c r="L6" t="n">
-        <v>460114.9800885445</v>
+        <v>456066.1428780738</v>
       </c>
       <c r="M6" t="n">
-        <v>462517.8184895483</v>
+        <v>461466.1234783601</v>
       </c>
       <c r="N6" t="n">
-        <v>505249.0954239169</v>
+        <v>505249.0954239168</v>
       </c>
       <c r="O6" t="n">
-        <v>473599.6246876371</v>
+        <v>473498.4536950484</v>
       </c>
       <c r="P6" t="n">
-        <v>492583.1845177936</v>
+        <v>492482.0135252053</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880677</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126784</v>
       </c>
       <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087659</v>
+        <v>58.40725419351547</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165932</v>
+        <v>14.33013548902032</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769598</v>
+        <v>23.72944978769607</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559184</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455252</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126784</v>
       </c>
       <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>294.3655852784802</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>255.9467947987842</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27458,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>62.57148239935059</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>110.7389651384296</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>146.4182780610957</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>122.6366302879474</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>56.13289260024544</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>149.0220151024587</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>88.53168247915985</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.286068635068091</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>74.07383661019713</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>144.9499311451648</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>32.38449727924053</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>27.26442071883741</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>178.2829560090413</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431611</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668788</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28980,10 +28980,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634527884</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29220,22 +29220,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.63600263452814</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>86.65052755599481</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="P29" t="n">
-        <v>30.27223765901232</v>
-      </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
-        <v>98.75804948160953</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539251</v>
+        <v>103.2865954513718</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>44.06419228855442</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>28.9223746526792</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30168,17 +30168,17 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082778</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,7 +30642,7 @@
         <v>96.46683947023186</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693164</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
         <v>96.46683947023186</v>
@@ -30657,7 +30657,7 @@
         <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693151</v>
       </c>
       <c r="Q43" t="n">
         <v>96.46683947023186</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561693052</v>
+        <v>36.24905561693163</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
   </sheetData>
@@ -31771,7 +31771,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129846</v>
+        <v>304.498187112397</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>179.8967290678784</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.78526262075694</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>145.0595010537762</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>233.7156086903027</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>160.8775538113984</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129846</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5280829775724</v>
+        <v>335.8241215170534</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>485.3286999706222</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35489,25 +35489,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.5613130890187</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35820,10 +35820,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.4480384844686</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832375</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133786</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36437,19 +36437,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>554.9052657131872</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724863</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>619.793238300906</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113649</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>516.941674777696</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>109.4615733925913</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>244.8689312076985</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>614.333158794775</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050166</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,7 +37084,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605128</v>
+        <v>454.9911329579595</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37160,13 +37160,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>119.5613130890192</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>13.98970481639535</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407351</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>194.7078694746992</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067171</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>301.0698682015229</v>
       </c>
       <c r="O34" t="n">
-        <v>273.934620891004</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640776</v>
+        <v>119.4865978367166</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O39" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184303</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,10 +37871,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>118.9107133037416</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922518</v>
@@ -37953,7 +37953,7 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>157.3360917548897</v>
       </c>
       <c r="Q43" t="n">
         <v>99.92360348038434</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>202.0345504389505</v>
+        <v>202.0345504389516</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038437</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
